--- a/data/trans_dic/P16B18-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Provincia-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1079,7 +1079,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16B18-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Provincia-trans_dic.xlsx
@@ -601,11 +601,11 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6822731434464734</v>
+        <v>0.6386362728942716</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.1702515801624231</v>
+        <v>0.3097500369403783</v>
       </c>
     </row>
     <row r="6">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6444062112301062</v>
+        <v>0.6664709760842376</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8415174984391396</v>
+        <v>0.8078602516592434</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
     </row>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9132053503979966</v>
+        <v>0.9120637283383358</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>1</v>
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8426439715539398</v>
+        <v>0.8018287200089769</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8282263868911929</v>
+        <v>0.8000928816316792</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
     </row>
@@ -799,7 +799,7 @@
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>0.6534284127569864</v>
+        <v>0.7062453641423472</v>
       </c>
     </row>
     <row r="18">
@@ -844,11 +844,11 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7925787073552768</v>
+        <v>0.7908638194127194</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.4408338695699895</v>
+        <v>0.439248574003991</v>
       </c>
     </row>
     <row r="21">
@@ -895,11 +895,11 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8488559774662019</v>
+        <v>0.8749009623359307</v>
       </c>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="n">
-        <v>0.8333320376885204</v>
+        <v>0.8331260360178644</v>
       </c>
     </row>
     <row r="24">
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7218090034353852</v>
+        <v>0.7217478991698995</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8701654341638801</v>
+        <v>0.8688322193789592</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8825030354128123</v>
+        <v>0.8558552773874462</v>
       </c>
     </row>
     <row r="27">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9344425069651257</v>
+        <v>0.9362576552588711</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>1</v>
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8717059762207751</v>
+        <v>0.870982431895225</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.9559464742668228</v>
+        <v>0.9555584397089931</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9177086657736255</v>
+        <v>0.9124452583105171</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9478385631103613</v>
+        <v>0.9471301261646864</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9954583435415187</v>
+        <v>0.9956036477112806</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9819180548731533</v>
+        <v>0.9813779018436163</v>
       </c>
     </row>
     <row r="31">
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14240</v>
+        <v>13330</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>894</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="7">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21334</v>
+        <v>22064</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22431</v>
+        <v>21534</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
     </row>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30233</v>
+        <v>30195</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>26656</v>
@@ -1359,10 +1359,10 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22409</v>
+        <v>21324</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19193</v>
+        <v>18541</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
     </row>
@@ -1429,7 +1429,7 @@
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="n">
-        <v>8057</v>
+        <v>8709</v>
       </c>
     </row>
     <row r="23">
@@ -1491,11 +1491,11 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>19656</v>
+        <v>19613</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>2853</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="27">
@@ -1559,11 +1559,11 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>27836</v>
+        <v>28690</v>
       </c>
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="n">
-        <v>30199</v>
+        <v>30192</v>
       </c>
     </row>
     <row r="31">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>33645</v>
+        <v>33642</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>41602</v>
+        <v>41538</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>33999</v>
+        <v>32973</v>
       </c>
     </row>
     <row r="35">
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>43556</v>
+        <v>43641</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>47809</v>
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>184085</v>
+        <v>183932</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>215076</v>
+        <v>214989</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>134566</v>
+        <v>133795</v>
       </c>
     </row>
     <row r="39">
@@ -1716,13 +1716,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>200163</v>
+        <v>200013</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>223966</v>
+        <v>223999</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>143982</v>
+        <v>143902</v>
       </c>
     </row>
     <row r="40">
